--- a/outputs-50-families-6-games.xlsx
+++ b/outputs-50-families-6-games.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13404" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13404" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="48">
   <si>
     <t>Family</t>
   </si>
@@ -162,6 +165,15 @@
   </si>
   <si>
     <t>Average matched rank</t>
+  </si>
+  <si>
+    <t>Num of families get i-th preferred bundle (decreasing order)</t>
+  </si>
+  <si>
+    <t>Family bundle rank</t>
+  </si>
+  <si>
+    <t>Average bundle rank</t>
   </si>
 </sst>
 </file>
@@ -515,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK52"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Y1" workbookViewId="0">
       <selection activeCell="AF3" sqref="AF3:AK52"/>
     </sheetView>
   </sheetViews>
@@ -647,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -656,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -680,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -698,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -716,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -734,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
         <v>0</v>
@@ -748,7 +760,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -760,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -778,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -796,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -814,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
         <v>0</v>
@@ -832,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
         <v>0</v>
@@ -849,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -858,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -876,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -894,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -912,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="AA5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -930,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -950,7 +962,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -959,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -983,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1001,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1019,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
         <v>0</v>
@@ -1031,13 +1043,13 @@
         <v>0</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6">
         <v>0</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
         <v>0</v>
@@ -1051,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1075,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1093,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1111,7 +1123,7 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
         <v>0</v>
@@ -1129,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1152,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1176,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -1194,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1212,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
         <v>0</v>
@@ -1230,10 +1242,10 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -1253,7 +1265,7 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1262,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -1286,7 +1298,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -1304,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1316,13 +1328,13 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
         <v>0</v>
@@ -1334,13 +1346,13 @@
         <v>0</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9">
         <v>0</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -1354,7 +1366,7 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1366,13 +1378,13 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1390,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -1408,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1426,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1438,13 +1450,13 @@
         <v>0</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
         <v>0</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
@@ -1455,7 +1467,7 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1473,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1491,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -1509,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1527,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1545,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
@@ -1556,10 +1568,10 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1580,10 +1592,10 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1595,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
         <v>0</v>
@@ -1613,10 +1625,10 @@
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -1631,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
         <v>0</v>
@@ -1657,7 +1669,7 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1669,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -1693,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1705,13 +1717,13 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
         <v>0</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -1723,13 +1735,13 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <v>0</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1741,13 +1753,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
         <v>0</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -1758,13 +1770,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1782,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1800,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
         <v>0</v>
@@ -1818,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
         <v>0</v>
@@ -1836,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
         <v>0</v>
@@ -1859,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1877,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1895,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -1913,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1931,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1949,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -1960,10 +1972,10 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1984,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -2002,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2020,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2038,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
         <v>0</v>
@@ -2061,7 +2073,7 @@
         <v>2</v>
       </c>
       <c r="C17">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2076,10 +2088,10 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2097,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17">
         <v>0</v>
@@ -2115,7 +2127,7 @@
         <v>0</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2133,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2151,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -2162,13 +2174,13 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -2186,7 +2198,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -2204,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -2219,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18">
         <v>0</v>
@@ -2237,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
         <v>0</v>
@@ -2263,7 +2275,7 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2272,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -2296,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2314,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2332,7 +2344,7 @@
         <v>0</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
         <v>0</v>
@@ -2350,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="AJ19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -2364,13 +2376,13 @@
         <v>2</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -2391,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2409,10 +2421,10 @@
         <v>0</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2427,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2439,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
         <v>0</v>
@@ -2465,22 +2477,22 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2492,13 +2504,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -2510,13 +2522,13 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21">
         <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2525,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21">
         <v>0</v>
@@ -2534,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -2543,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH21">
         <v>0</v>
@@ -2552,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -2566,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2578,13 +2590,13 @@
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2602,7 +2614,7 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
         <v>0</v>
@@ -2620,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2638,7 +2650,7 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2650,13 +2662,13 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ22">
         <v>0</v>
       </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -2667,7 +2679,7 @@
         <v>2</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2676,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2694,10 +2706,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2712,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -2730,10 +2742,10 @@
         <v>0</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>0</v>
@@ -2748,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23">
         <v>0</v>
@@ -2768,7 +2780,7 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2777,13 +2789,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2801,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -2819,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -2837,7 +2849,7 @@
         <v>0</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2849,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="AH24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI24">
         <v>0</v>
       </c>
       <c r="AJ24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK24">
         <v>0</v>
@@ -2869,13 +2881,13 @@
         <v>2</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2893,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -2911,7 +2923,7 @@
         <v>0</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2929,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>0</v>
@@ -2947,7 +2959,7 @@
         <v>0</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH25">
         <v>0</v>
@@ -2970,7 +2982,7 @@
         <v>2</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2979,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2997,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -3015,10 +3027,10 @@
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3033,10 +3045,10 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3051,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ26">
         <v>0</v>
@@ -3071,13 +3083,13 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -3086,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3098,13 +3110,13 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27">
         <v>0</v>
@@ -3116,13 +3128,13 @@
         <v>0</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>0</v>
@@ -3134,13 +3146,13 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB27">
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -3149,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -3158,7 +3170,7 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK27">
         <v>0</v>
@@ -3172,13 +3184,13 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -3196,10 +3208,10 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -3214,10 +3226,10 @@
         <v>0</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -3232,10 +3244,10 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
         <v>0</v>
@@ -3250,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28">
         <v>0</v>
@@ -3273,7 +3285,7 @@
         <v>3</v>
       </c>
       <c r="C29">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3291,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3303,13 +3315,13 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29">
         <v>0</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29">
         <v>0</v>
@@ -3321,13 +3333,13 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29">
         <v>0</v>
       </c>
       <c r="W29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -3342,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -3363,7 +3375,7 @@
         <v>0</v>
       </c>
       <c r="AK29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
@@ -3374,10 +3386,10 @@
         <v>3</v>
       </c>
       <c r="C30">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -3395,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3413,7 +3425,7 @@
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -3431,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -3449,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30">
         <v>0</v>
@@ -3475,7 +3487,7 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3490,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3502,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
         <v>0</v>
@@ -3526,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="V31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W31">
         <v>0</v>
@@ -3544,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -3562,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31">
         <v>0</v>
@@ -3576,7 +3588,7 @@
         <v>3</v>
       </c>
       <c r="C32">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3594,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3606,13 +3618,13 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3624,13 +3636,13 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>0</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3642,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3660,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ32">
         <v>0</v>
       </c>
       <c r="AK32">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.3">
@@ -3677,7 +3689,7 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3695,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3707,13 +3719,13 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
         <v>0</v>
@@ -3728,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3749,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -3767,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:37" x14ac:dyDescent="0.3">
@@ -3778,7 +3790,7 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3793,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -3808,13 +3820,13 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34">
         <v>0</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34">
         <v>0</v>
@@ -3832,7 +3844,7 @@
         <v>0</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -3850,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3868,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="AK34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:37" x14ac:dyDescent="0.3">
@@ -3879,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="C35">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3897,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3909,13 +3921,13 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
         <v>0</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
         <v>0</v>
@@ -3927,13 +3939,13 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>0</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -3945,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>0</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
         <v>0</v>
@@ -3966,10 +3978,10 @@
         <v>0</v>
       </c>
       <c r="AJ35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.3">
@@ -3980,7 +3992,7 @@
         <v>3</v>
       </c>
       <c r="C36">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3989,10 +4001,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -4007,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36">
         <v>0</v>
@@ -4025,10 +4037,10 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4043,10 +4055,10 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
         <v>0</v>
@@ -4061,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ36">
         <v>0</v>
@@ -4081,13 +4093,13 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -4102,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4120,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -4138,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z37">
         <v>0</v>
@@ -4156,7 +4168,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4182,7 +4194,7 @@
         <v>3</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -4191,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -4203,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4227,10 +4239,10 @@
         <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4245,10 +4257,10 @@
         <v>0</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4263,10 +4275,10 @@
         <v>0</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ38">
         <v>0</v>
@@ -4283,7 +4295,7 @@
         <v>3</v>
       </c>
       <c r="C39">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -4301,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -4316,10 +4328,10 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
         <v>0</v>
@@ -4337,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="W39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y39">
         <v>0</v>
@@ -4355,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>0</v>
@@ -4373,7 +4385,7 @@
         <v>0</v>
       </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:37" x14ac:dyDescent="0.3">
@@ -4384,7 +4396,7 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -4396,13 +4408,13 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -4414,13 +4426,13 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -4432,13 +4444,13 @@
         <v>0</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
         <v>0</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>0</v>
@@ -4450,13 +4462,13 @@
         <v>0</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
         <v>0</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
         <v>0</v>
@@ -4468,13 +4480,13 @@
         <v>0</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ40">
         <v>0</v>
       </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.3">
@@ -4485,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="C41">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -4494,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -4512,7 +4524,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -4530,7 +4542,7 @@
         <v>0</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -4548,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB41">
         <v>1</v>
@@ -4566,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41">
         <v>1</v>
@@ -4586,10 +4598,10 @@
         <v>3</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -4604,10 +4616,10 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4625,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="R42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -4643,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="Y42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z42">
         <v>0</v>
@@ -4661,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42">
         <v>0</v>
@@ -4687,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="C43">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -4696,10 +4708,10 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4708,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
@@ -4726,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4750,10 +4762,10 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43">
         <v>0</v>
@@ -4768,10 +4780,10 @@
         <v>0</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43">
         <v>0</v>
@@ -4788,10 +4800,10 @@
         <v>4</v>
       </c>
       <c r="C44">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -4809,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L44">
         <v>0</v>
@@ -4827,7 +4839,7 @@
         <v>0</v>
       </c>
       <c r="R44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -4845,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z44">
         <v>0</v>
@@ -4863,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG44">
         <v>0</v>
@@ -4889,10 +4901,10 @@
         <v>4</v>
       </c>
       <c r="C45">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -4910,7 +4922,7 @@
         <v>0</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L45">
         <v>0</v>
@@ -4928,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="R45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -4946,7 +4958,7 @@
         <v>0</v>
       </c>
       <c r="Y45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z45">
         <v>0</v>
@@ -4964,7 +4976,7 @@
         <v>0</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45">
         <v>0</v>
@@ -4990,7 +5002,7 @@
         <v>4</v>
       </c>
       <c r="C46">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -5005,7 +5017,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -5017,13 +5029,13 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46">
         <v>0</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46">
         <v>0</v>
@@ -5035,13 +5047,13 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
       </c>
       <c r="V46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W46">
         <v>0</v>
@@ -5053,13 +5065,13 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB46">
         <v>0</v>
       </c>
       <c r="AC46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46">
         <v>0</v>
@@ -5071,13 +5083,13 @@
         <v>0</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI46">
         <v>0</v>
       </c>
       <c r="AJ46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK46">
         <v>0</v>
@@ -5091,13 +5103,13 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -5112,10 +5124,10 @@
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -5130,10 +5142,10 @@
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -5148,10 +5160,10 @@
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA47">
         <v>0</v>
@@ -5166,10 +5178,10 @@
         <v>0</v>
       </c>
       <c r="AF47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH47">
         <v>0</v>
@@ -5201,13 +5213,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -5225,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48">
         <v>0</v>
@@ -5243,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W48">
         <v>0</v>
@@ -5261,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48">
         <v>0</v>
@@ -5279,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="AJ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK48">
         <v>0</v>
@@ -5293,13 +5305,13 @@
         <v>4</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -5314,13 +5326,13 @@
         <v>0</v>
       </c>
       <c r="K49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -5332,13 +5344,13 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <v>0</v>
@@ -5350,13 +5362,13 @@
         <v>0</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -5368,13 +5380,13 @@
         <v>0</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI49">
         <v>0</v>
@@ -5394,7 +5406,7 @@
         <v>4</v>
       </c>
       <c r="C50">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -5409,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -5421,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -5439,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
         <v>0</v>
@@ -5457,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB50">
         <v>0</v>
@@ -5475,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -5495,19 +5507,19 @@
         <v>5</v>
       </c>
       <c r="C51">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51">
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5596,13 +5608,13 @@
         <v>5</v>
       </c>
       <c r="C52">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="D52">
         <v>0</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -5617,10 +5629,10 @@
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -5632,13 +5644,13 @@
         <v>0</v>
       </c>
       <c r="P52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T52">
         <v>0</v>
@@ -5650,13 +5662,13 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA52">
         <v>0</v>
@@ -5668,13 +5680,13 @@
         <v>0</v>
       </c>
       <c r="AD52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -5686,7 +5698,7 @@
         <v>0</v>
       </c>
       <c r="AK52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5711,59 +5723,59 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
         <v>3</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
       <c r="F3">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
         <v>6</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -5774,13 +5786,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -5791,22 +5803,22 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6">
+      <c r="F6">
         <v>5</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -5817,133 +5829,133 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
         <v>5</v>
       </c>
-      <c r="D8">
-        <v>4</v>
-      </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
       <c r="F9">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="C10">
-        <v>4</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>6</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
         <v>5</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
       <c r="F12">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
         <v>6</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
       </c>
       <c r="F13">
         <v>5</v>
@@ -5951,27 +5963,27 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>4</v>
-      </c>
       <c r="F14">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -5986,104 +5998,104 @@
         <v>6</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
         <v>3</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
       <c r="F16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>6</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5</v>
-      </c>
-      <c r="F17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
         <v>5</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
       <c r="E18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="B19">
+      <c r="E19">
         <v>6</v>
       </c>
-      <c r="C19">
-        <v>4</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
+        <v>6</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
         <v>5</v>
       </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20">
-        <v>6</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -6091,13 +6103,13 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
         <v>5</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21">
-        <v>6</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -6111,22 +6123,22 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22">
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
@@ -6134,159 +6146,159 @@
         <v>6</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
         <v>6</v>
       </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
+      <c r="F24">
         <v>5</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
         <v>5</v>
       </c>
-      <c r="B25">
-        <v>4</v>
-      </c>
       <c r="C25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
       <c r="F25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="B27">
+      <c r="E27">
+        <v>6</v>
+      </c>
+      <c r="F27">
         <v>5</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>6</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28">
         <v>6</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
       </c>
       <c r="C28">
         <v>5</v>
       </c>
       <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
         <v>3</v>
       </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
       <c r="F28">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
         <v>6</v>
       </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29">
+      <c r="F29">
         <v>5</v>
-      </c>
-      <c r="F29">
-        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
@@ -6294,19 +6306,19 @@
         <v>4</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
@@ -6314,139 +6326,139 @@
         <v>4</v>
       </c>
       <c r="B32">
+        <v>6</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>3</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>6</v>
-      </c>
-      <c r="E32">
-        <v>2</v>
-      </c>
       <c r="F32">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+      <c r="C33">
         <v>5</v>
       </c>
-      <c r="B33">
-        <v>4</v>
-      </c>
-      <c r="C33">
+      <c r="D33">
+        <v>2</v>
+      </c>
+      <c r="E33">
         <v>3</v>
       </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="E34">
-        <v>6</v>
-      </c>
       <c r="F34">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
         <v>5</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
       <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="D35">
-        <v>4</v>
-      </c>
       <c r="E35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
         <v>3</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>5</v>
       </c>
       <c r="E36">
         <v>6</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
         <v>3</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
       </c>
       <c r="E37">
         <v>6</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B38">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
         <v>3</v>
       </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38">
-        <v>2</v>
-      </c>
       <c r="F38">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
@@ -6454,16 +6466,16 @@
         <v>4</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C39">
         <v>5</v>
       </c>
       <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
         <v>3</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -6471,42 +6483,42 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40">
         <v>5</v>
       </c>
-      <c r="B40">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
         <v>6</v>
       </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>2</v>
-      </c>
       <c r="F40">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
@@ -6514,16 +6526,16 @@
         <v>1</v>
       </c>
       <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="E42">
         <v>6</v>
-      </c>
-      <c r="D42">
-        <v>4</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -6531,27 +6543,27 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43">
         <v>6</v>
       </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>2</v>
-      </c>
       <c r="F43">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -6563,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>5</v>
@@ -6571,42 +6583,42 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>5</v>
       </c>
       <c r="E45">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
         <v>3</v>
       </c>
-      <c r="B46">
-        <v>4</v>
-      </c>
-      <c r="C46">
+      <c r="E46">
+        <v>6</v>
+      </c>
+      <c r="F46">
         <v>5</v>
-      </c>
-      <c r="D46">
-        <v>6</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
@@ -6614,59 +6626,59 @@
         <v>6</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
         <v>5</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
+        <v>1</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48">
         <v>6</v>
       </c>
-      <c r="B48">
-        <v>4</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
+      <c r="F48">
         <v>5</v>
-      </c>
-      <c r="E48">
-        <v>3</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
+        <v>6</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
         <v>5</v>
       </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-      <c r="C49">
-        <v>2</v>
-      </c>
-      <c r="D49">
-        <v>4</v>
-      </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
@@ -6674,39 +6686,39 @@
         <v>1</v>
       </c>
       <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
         <v>3</v>
-      </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
       </c>
       <c r="E50">
         <v>6</v>
       </c>
       <c r="F50">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51">
         <v>6</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
+      <c r="F51">
         <v>5</v>
-      </c>
-      <c r="E51">
-        <v>4</v>
-      </c>
-      <c r="F51">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6734,94 +6746,94 @@
         <v>16</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="Z3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AA3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AE3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AF3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.3">
@@ -6829,94 +6841,94 @@
         <v>17</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="T4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="X4">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="Z4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AA4">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="AB4">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="AC4">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="AD4">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="AE4">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="AF4">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AG4">
-        <v>5</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
@@ -6924,19 +6936,19 @@
         <v>18</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -6945,16 +6957,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -6963,16 +6975,16 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U6">
         <v>0</v>
@@ -6981,16 +6993,16 @@
         <v>0</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA6">
         <v>0</v>
@@ -6999,16 +7011,16 @@
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG6">
         <v>0</v>
@@ -7019,94 +7031,94 @@
         <v>19</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -7114,94 +7126,94 @@
         <v>20</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -7209,91 +7221,91 @@
         <v>21</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG9">
         <v>0</v>
@@ -7304,16 +7316,16 @@
         <v>22</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -7322,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -7337,13 +7349,13 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -7355,13 +7367,13 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -7373,13 +7385,13 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
         <v>0</v>
@@ -7391,7 +7403,7 @@
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -7419,19 +7431,19 @@
         <v>26</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -7439,19 +7451,19 @@
         <v>27</v>
       </c>
       <c r="D15">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -7459,19 +7471,19 @@
         <v>18</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -7479,19 +7491,19 @@
         <v>19</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -7499,19 +7511,19 @@
         <v>20</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -7519,19 +7531,19 @@
         <v>21</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -7539,19 +7551,19 @@
         <v>22</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -7564,19 +7576,19 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F23">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -7584,19 +7596,19 @@
         <v>30</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -7689,19 +7701,19 @@
         <v>29</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -7709,19 +7721,19 @@
         <v>30</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -7813,7 +7825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D36" sqref="D36:H36"/>
     </sheetView>
   </sheetViews>
@@ -7849,19 +7861,19 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -7869,19 +7881,19 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -7889,19 +7901,19 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -7974,19 +7986,19 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E11">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G11">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="H11">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -7994,19 +8006,19 @@
         <v>30</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -8014,19 +8026,19 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -8099,19 +8111,19 @@
         <v>38</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="G19">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -8119,19 +8131,19 @@
         <v>39</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -8139,19 +8151,19 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -8159,19 +8171,19 @@
         <v>41</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -8179,7 +8191,7 @@
         <v>42</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -8202,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -8224,19 +8236,19 @@
         <v>38</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="F28">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G28">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -8244,19 +8256,19 @@
         <v>39</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -8264,19 +8276,19 @@
         <v>40</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -8284,19 +8296,19 @@
         <v>41</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -8304,7 +8316,7 @@
         <v>42</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -8327,7 +8339,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -8344,19 +8356,1660 @@
         <v>44</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>1.97</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>1.97</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>1.95</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>1.96</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>1.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>8</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>7</v>
+      </c>
+      <c r="D36">
+        <v>7</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>36</v>
+      </c>
+      <c r="B2">
+        <v>36</v>
+      </c>
+      <c r="C2">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>19</v>
+      </c>
+      <c r="D3">
+        <v>19</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>26</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>36</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>36</v>
+      </c>
+      <c r="D7">
+        <v>36</v>
+      </c>
+      <c r="E7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>33</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>33</v>
+      </c>
+      <c r="C10">
+        <v>33</v>
+      </c>
+      <c r="D10">
+        <v>33</v>
+      </c>
+      <c r="E10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>15</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>12</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>33</v>
+      </c>
+      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>33</v>
+      </c>
+      <c r="E14">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>36</v>
+      </c>
+      <c r="C15">
+        <v>36</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>33</v>
+      </c>
+      <c r="C16">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>33</v>
+      </c>
+      <c r="E16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>23</v>
+      </c>
+      <c r="D17">
+        <v>35</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>36</v>
+      </c>
+      <c r="D18">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>26</v>
+      </c>
+      <c r="E19">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>22</v>
+      </c>
+      <c r="D20">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>33</v>
+      </c>
+      <c r="E21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>26</v>
+      </c>
+      <c r="D22">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>36</v>
+      </c>
+      <c r="D23">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>26</v>
+      </c>
+      <c r="D25">
+        <v>26</v>
+      </c>
+      <c r="E25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>22</v>
+      </c>
+      <c r="E26">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>23</v>
+      </c>
+      <c r="C27">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>23</v>
+      </c>
+      <c r="E27">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>12</v>
+      </c>
+      <c r="D28">
+        <v>17</v>
+      </c>
+      <c r="E28">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <v>35</v>
+      </c>
+      <c r="E29">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>36</v>
+      </c>
+      <c r="B30">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>36</v>
+      </c>
+      <c r="D30">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>12</v>
+      </c>
+      <c r="E31">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>33</v>
+      </c>
+      <c r="E32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>33</v>
+      </c>
+      <c r="D33">
+        <v>33</v>
+      </c>
+      <c r="E33">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>26</v>
+      </c>
+      <c r="B35">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>26</v>
+      </c>
+      <c r="E35">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>15</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>26</v>
+      </c>
+      <c r="D37">
+        <v>26</v>
+      </c>
+      <c r="E37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>33</v>
+      </c>
+      <c r="B38">
+        <v>17</v>
+      </c>
+      <c r="C38">
+        <v>33</v>
+      </c>
+      <c r="D38">
+        <v>33</v>
+      </c>
+      <c r="E38">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>12</v>
+      </c>
+      <c r="B39">
+        <v>12</v>
+      </c>
+      <c r="C39">
+        <v>12</v>
+      </c>
+      <c r="D39">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>26</v>
+      </c>
+      <c r="C40">
+        <v>26</v>
+      </c>
+      <c r="D40">
+        <v>26</v>
+      </c>
+      <c r="E40">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="E41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>26</v>
+      </c>
+      <c r="B42">
+        <v>35</v>
+      </c>
+      <c r="C42">
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>26</v>
+      </c>
+      <c r="E42">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43">
+        <v>35</v>
+      </c>
+      <c r="C43">
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>35</v>
+      </c>
+      <c r="E43">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>35</v>
+      </c>
+      <c r="B44">
+        <v>35</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <v>35</v>
+      </c>
+      <c r="E44">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>36</v>
+      </c>
+      <c r="B45">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>22</v>
+      </c>
+      <c r="D45">
+        <v>22</v>
+      </c>
+      <c r="E45">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>21</v>
+      </c>
+      <c r="C47">
+        <v>21</v>
+      </c>
+      <c r="D47">
+        <v>21</v>
+      </c>
+      <c r="E47">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+      <c r="D49">
+        <v>22</v>
+      </c>
+      <c r="E49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>26</v>
+      </c>
+      <c r="B50">
+        <v>35</v>
+      </c>
+      <c r="C50">
+        <v>35</v>
+      </c>
+      <c r="D50">
+        <v>35</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>36</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>26.9</v>
+      </c>
+      <c r="B2">
+        <v>27.1</v>
+      </c>
+      <c r="C2">
+        <v>27.3</v>
+      </c>
+      <c r="D2">
+        <v>27.5</v>
+      </c>
+      <c r="E2">
+        <v>26.7</v>
       </c>
     </row>
   </sheetData>

--- a/outputs-50-families-6-games.xlsx
+++ b/outputs-50-families-6-games.xlsx
@@ -6831,22 +6831,22 @@
         <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="AL3" t="n">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="AM3" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="AN3" t="n">
-        <v>2</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -6946,22 +6946,22 @@
         <v>33</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="AL4" t="n">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="AM4" t="n">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="AN4" t="n">
-        <v>2</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
@@ -7061,19 +7061,19 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AN6" t="n">
         <v>2</v>
@@ -7176,22 +7176,22 @@
         <v>6</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -7291,22 +7291,22 @@
         <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -7406,19 +7406,19 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -7521,19 +7521,19 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -7598,7 +7598,7 @@
         <v>13</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -7623,7 +7623,7 @@
         <v>33</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -7648,7 +7648,7 @@
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -7673,7 +7673,7 @@
         <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -7698,7 +7698,7 @@
         <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -7723,7 +7723,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -7748,7 +7748,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -7780,7 +7780,7 @@
         <v>23</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -7805,7 +7805,7 @@
         <v>27</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25">
@@ -7937,7 +7937,7 @@
         <v>60</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33">
@@ -7962,7 +7962,7 @@
         <v>70</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>436</v>
       </c>
     </row>
     <row r="34">
@@ -8423,7 +8423,7 @@
         <v>36</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20">
@@ -8448,7 +8448,7 @@
         <v>19</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -8473,7 +8473,7 @@
         <v>14</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22">
@@ -8498,7 +8498,7 @@
         <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23">
@@ -8523,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24">
@@ -8548,7 +8548,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27">
@@ -8580,7 +8580,7 @@
         <v>100</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29">
@@ -8605,7 +8605,7 @@
         <v>47</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30">
@@ -8630,7 +8630,7 @@
         <v>34</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -8655,7 +8655,7 @@
         <v>19</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32">
@@ -8680,7 +8680,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -8705,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36">
@@ -8741,7 +8741,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP43"/>
+  <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E43"/>
@@ -8882,10 +8882,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -8894,70 +8894,70 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="X7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -8966,7 +8966,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-135</v>
       </c>
     </row>
     <row r="8">
@@ -10502,7 +10505,7 @@
     </row>
     <row r="7">
       <c r="B7" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
